--- a/history/中国上下五千年/中国历史大全.xlsx
+++ b/history/中国上下五千年/中国历史大全.xlsx
@@ -1,131 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="中国朝代基表BaseLine" sheetId="1" r:id="rId1"/>
     <sheet name="100时间表TimeLine" sheetId="2" r:id="rId2"/>
     <sheet name="101人物表VipLine" sheetId="4" r:id="rId3"/>
+    <sheet name="102重大事件表EventLine" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'101人物表VipLine'!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'102重大事件表EventLine'!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">中国朝代基表BaseLine!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="283">
   <si>
     <t>春秋</t>
   </si>
   <si>
     <t>春秋</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>战国</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>西周</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>东周</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>秦</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>齐</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>楚</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>韩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>赵</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>魏</t>
   </si>
   <si>
     <t>魏</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>燕</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>初期</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>中后期</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>魏</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>蜀</t>
   </si>
   <si>
     <t>蜀</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>吴</t>
   </si>
   <si>
     <t>吴</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>西晋</t>
   </si>
   <si>
     <t>西晋</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>东晋</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>南北朝</t>
   </si>
   <si>
     <t>南北朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>五代十国</t>
   </si>
   <si>
     <t>五代十国</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>后梁</t>
@@ -144,7 +141,7 @@
   </si>
   <si>
     <t>北宋</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>南唐</t>
@@ -154,25 +151,25 @@
   </si>
   <si>
     <t>南宋</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>元</t>
   </si>
   <si>
     <t>元</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明</t>
   </si>
   <si>
     <t>明</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>清</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>夏朝</t>
@@ -182,29 +179,29 @@
   </si>
   <si>
     <t>商朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>秦朝</t>
   </si>
   <si>
     <t>秦朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>新朝</t>
   </si>
   <si>
     <t>新朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>西汉王朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>东汉王朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>朝代</t>
@@ -646,7 +643,7 @@
   </si>
   <si>
     <t>咸阳、西安</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -655,10 +652,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>州</t>
     </r>
@@ -670,10 +665,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>宜臼</t>
     </r>
@@ -685,10 +678,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>国</t>
     </r>
@@ -703,10 +694,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>羽</t>
     </r>
@@ -718,10 +707,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>王朝</t>
     </r>
@@ -733,10 +720,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>高祖刘邦</t>
     </r>
@@ -748,10 +733,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>帝王莽</t>
     </r>
@@ -766,10 +749,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>王朝</t>
     </r>
@@ -784,10 +765,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>晋</t>
     </r>
@@ -799,29 +778,24 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>司</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>马</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>睿</t>
     </r>
@@ -833,29 +807,24 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>汉赵</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -870,19 +839,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>·</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>齐</t>
     </r>
@@ -894,10 +860,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>道成</t>
     </r>
@@ -912,10 +876,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>衍</t>
     </r>
@@ -927,19 +889,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>·</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>陈</t>
     </r>
@@ -951,10 +910,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>霸先</t>
     </r>
@@ -969,10 +926,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>魏</t>
     </r>
@@ -987,19 +942,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>北</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>齐</t>
     </r>
@@ -1017,10 +969,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>匡胤</t>
     </r>
@@ -1032,10 +982,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>构</t>
     </r>
@@ -1047,10 +995,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>阿骨打</t>
     </r>
@@ -1062,10 +1008,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>木真</t>
     </r>
@@ -1083,48 +1027,40 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>新</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>觉罗</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>·努</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>尔</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>哈赤</t>
     </r>
@@ -1136,10 +1072,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>阿拉</t>
     </r>
@@ -1157,29 +1091,24 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>大</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>总统孙</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>中山</t>
     </r>
@@ -1191,10 +1120,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>人民共和国</t>
     </r>
@@ -1204,7 +1131,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>前</t>
@@ -1221,7 +1148,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>年</t>
@@ -1238,7 +1165,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>前</t>
@@ -1255,7 +1182,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>年（</t>
@@ -1272,20 +1199,20 @@
       <rPr>
         <sz val="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>年）</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>洛阳</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>魏文帝曹丕</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1294,24 +1221,20 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>昭烈帝刘</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>备</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1320,21 +1243,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>孙权</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>晋武帝司</t>
@@ -1352,50 +1273,46 @@
       <rPr>
         <sz val="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>炎</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>隋朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（武周）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>则</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>天大圣皇帝武曌</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>唐中宗李</t>
@@ -1409,19 +1326,19 @@
       </rPr>
       <t>显</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>西夏王朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>中都 开封</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>后大理</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1431,114 +1348,99 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>仅仅</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>是部落</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>联</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>盟首</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>领</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>，非真正的帝王）</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>夏朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>五帝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>鲧</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>玄</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>汉</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>王朝</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>西楚王朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄汉王朝</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1547,71 +1449,169 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级标题</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三级标题</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四级标题</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>十六国</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南朝·齐</t>
+  </si>
+  <si>
+    <t>南朝·陈</t>
+  </si>
+  <si>
+    <t>北朝·东魏</t>
+  </si>
+  <si>
+    <t>北朝·北齐</t>
+  </si>
+  <si>
+    <t>隋朝</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>唐朝前期</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武周</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>唐朝中后期</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>辽朝(西辽)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西夏王朝</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金朝</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大蒙古国</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华民国</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人民共和国</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>级标题</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三级标题</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>四级标题</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>十六国</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南朝·齐</t>
-  </si>
-  <si>
-    <t>南朝·陈</t>
-  </si>
-  <si>
-    <t>北朝·东魏</t>
-  </si>
-  <si>
-    <t>北朝·北齐</t>
-  </si>
-  <si>
-    <t>隋朝</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>唐朝前期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武周</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>唐朝中后期</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级标题</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级标题</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>秦朝</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西楚王朝</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄汉王朝</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>辽朝(西辽)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>西夏王朝</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金朝</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大蒙古国</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1620,92 +1620,71 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华民国</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>华民国</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>华</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>人民共和国</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级标题</t>
-    </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <color indexed="8"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1721,23 +1700,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1755,19 +1729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,6 +1767,28 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1830,28 +1826,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1898,122 +1872,199 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2025,7 +2076,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2060,7 +2111,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2095,7 +2146,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2272,28 +2323,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C14"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
         <v>274</v>
       </c>
@@ -2307,382 +2358,382 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="21"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="21"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="21"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="27"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="28"/>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="24"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="27"/>
       <c r="B27" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="27"/>
       <c r="B28" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="27"/>
       <c r="B29" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="27"/>
       <c r="B30" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="27"/>
       <c r="B31" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:4">
+      <c r="A32" s="27"/>
       <c r="B32" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="24"/>
+    <row r="33" spans="1:2">
+      <c r="A33" s="27"/>
       <c r="B33" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:2">
+      <c r="A34" s="28"/>
       <c r="B34" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="22"/>
+    <row r="40" spans="1:2">
+      <c r="A40" s="25"/>
       <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="22"/>
+    <row r="41" spans="1:2">
+      <c r="A41" s="25"/>
       <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="22"/>
+    <row r="42" spans="1:2">
+      <c r="A42" s="25"/>
       <c r="B42" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="22"/>
+    <row r="43" spans="1:2">
+      <c r="A43" s="25"/>
       <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="22"/>
+    <row r="44" spans="1:2">
+      <c r="A44" s="25"/>
       <c r="B44" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="22"/>
+    <row r="45" spans="1:2">
+      <c r="A45" s="25"/>
       <c r="B45" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="22"/>
+    <row r="46" spans="1:2">
+      <c r="A46" s="25"/>
       <c r="B46" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="22"/>
+    <row r="47" spans="1:2">
+      <c r="A47" s="25"/>
       <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="22"/>
+    <row r="48" spans="1:2">
+      <c r="A48" s="25"/>
       <c r="B48" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="22"/>
+    <row r="49" spans="1:2">
+      <c r="A49" s="25"/>
       <c r="B49" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="22"/>
+    <row r="50" spans="1:2">
+      <c r="A50" s="25"/>
       <c r="B50" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="22"/>
+    <row r="51" spans="1:2">
+      <c r="A51" s="25"/>
       <c r="B51" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="22"/>
+    <row r="52" spans="1:2">
+      <c r="A52" s="25"/>
       <c r="B52" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="22"/>
+    <row r="53" spans="1:2">
+      <c r="A53" s="25"/>
       <c r="B53" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>273</v>
       </c>
@@ -2697,20 +2748,20 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A26:A34"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="C25" sqref="C25:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
@@ -2720,15 +2771,15 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
@@ -2736,71 +2787,71 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="18" t="s">
         <v>252</v>
       </c>
@@ -2808,127 +2859,127 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="27"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="29"/>
       <c r="B16" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="28" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="8" t="s">
         <v>200</v>
       </c>
@@ -2936,15 +2987,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="8" t="s">
         <v>201</v>
       </c>
@@ -2952,47 +3003,47 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="28" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="8" t="s">
         <v>204</v>
       </c>
@@ -3000,15 +3051,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="8" t="s">
         <v>205</v>
       </c>
@@ -3016,15 +3067,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="8" t="s">
         <v>207</v>
       </c>
@@ -3032,14 +3083,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -3052,12 +3103,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="30"/>
       <c r="B26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="9" t="s">
         <v>86</v>
       </c>
@@ -3068,12 +3119,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:6">
+      <c r="A27" s="30"/>
       <c r="B27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="9" t="s">
         <v>88</v>
       </c>
@@ -3084,42 +3135,42 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="29" t="s">
         <v>241</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="28"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="30"/>
       <c r="B30" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="9" t="s">
         <v>93</v>
       </c>
@@ -3130,212 +3181,212 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+    <row r="32" spans="1:6">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="28" t="s">
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="29" t="s">
         <v>115</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -3348,12 +3399,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="28"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="30"/>
       <c r="B51" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="9" t="s">
         <v>118</v>
       </c>
@@ -3364,12 +3415,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="28"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="30"/>
       <c r="B52" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="9" t="s">
         <v>119</v>
       </c>
@@ -3380,12 +3431,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="28"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="30"/>
       <c r="B53" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="9" t="s">
         <v>120</v>
       </c>
@@ -3396,38 +3447,38 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="30" t="s">
         <v>122</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="28"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="28"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="30"/>
       <c r="B56" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="9" t="s">
         <v>124</v>
       </c>
@@ -3438,12 +3489,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="28"/>
+    <row r="57" spans="1:6">
+      <c r="A57" s="30"/>
       <c r="B57" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="9" t="s">
         <v>126</v>
       </c>
@@ -3454,12 +3505,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="28"/>
+    <row r="58" spans="1:6">
+      <c r="A58" s="30"/>
       <c r="B58" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="9" t="s">
         <v>128</v>
       </c>
@@ -3470,12 +3521,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="28"/>
+    <row r="59" spans="1:6">
+      <c r="A59" s="30"/>
       <c r="B59" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="9" t="s">
         <v>130</v>
       </c>
@@ -3486,41 +3537,41 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="28" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="27" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="29"/>
+      <c r="E60" s="29" t="s">
         <v>133</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+    <row r="61" spans="1:6">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="28" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="30"/>
+      <c r="C62" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="27"/>
+      <c r="D62" s="29"/>
       <c r="E62" s="8" t="s">
         <v>223</v>
       </c>
@@ -3528,15 +3579,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="36" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="27"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="13" t="s">
         <v>244</v>
       </c>
@@ -3544,196 +3595,196 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="27" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="29"/>
+      <c r="C64" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="27"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="9" t="s">
         <v>245</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="28" t="s">
+    <row r="65" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A65" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28" t="s">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="27" t="s">
+      <c r="D65" s="30"/>
+      <c r="E65" s="29" t="s">
         <v>114</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="27" t="s">
+    <row r="66" spans="1:6">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
       <c r="F66" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="27" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="27" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="27" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="27" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="27" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="27" t="s">
+    <row r="72" spans="1:6">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="27" t="s">
+    <row r="73" spans="1:6">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="27" t="s">
+    <row r="74" spans="1:6">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="27" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="27" t="s">
+    <row r="76" spans="1:6">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="27" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="27" t="s">
+    <row r="78" spans="1:6">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="27" t="s">
+    <row r="79" spans="1:6">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="27" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="28" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="30" t="s">
         <v>151</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="29" t="s">
         <v>152</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -3746,12 +3797,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="28"/>
+    <row r="82" spans="1:6">
+      <c r="A82" s="30"/>
       <c r="B82" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="27"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="9" t="s">
         <v>154</v>
       </c>
@@ -3762,37 +3813,37 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="27" t="s">
+    <row r="83" spans="1:6">
+      <c r="A83" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27" t="s">
+      <c r="B83" s="29"/>
+      <c r="C83" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D83" s="27"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="27" t="s">
+    <row r="84" spans="1:6">
+      <c r="A84" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27" t="s">
+      <c r="B84" s="29"/>
+      <c r="C84" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D84" s="27"/>
+      <c r="D84" s="29"/>
       <c r="E84" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="28"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F84" s="30"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="15" t="s">
         <v>246</v>
       </c>
@@ -3808,15 +3859,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="27" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D86" s="27"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="8" t="s">
         <v>226</v>
       </c>
@@ -3824,89 +3875,89 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="27" t="s">
+    <row r="87" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A87" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="E87" s="27" t="s">
+      <c r="E87" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="27"/>
+    <row r="88" spans="1:6">
+      <c r="A88" s="29"/>
       <c r="B88" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-    </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="28" t="s">
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A89" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="B89" s="28"/>
-      <c r="C89" s="27" t="s">
+      <c r="B89" s="30"/>
+      <c r="C89" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="27"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F89" s="28" t="s">
+      <c r="F89" s="30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="28" t="s">
+    <row r="90" spans="1:6">
+      <c r="A90" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="27" t="s">
+      <c r="B90" s="30"/>
+      <c r="C90" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D90" s="27"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F90" s="28"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="27" t="s">
+      <c r="F90" s="30"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="27"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F91" s="28"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="28" t="s">
+      <c r="F91" s="30"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="27" t="s">
+      <c r="B92" s="30"/>
+      <c r="C92" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="27"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="8" t="s">
         <v>228</v>
       </c>
@@ -3914,15 +3965,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="28" t="s">
+    <row r="93" spans="1:6">
+      <c r="A93" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B93" s="28"/>
-      <c r="C93" s="27" t="s">
+      <c r="B93" s="30"/>
+      <c r="C93" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D93" s="27"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="8" t="s">
         <v>229</v>
       </c>
@@ -3930,15 +3981,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="28" t="s">
+    <row r="94" spans="1:6">
+      <c r="A94" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="27" t="s">
+      <c r="B94" s="30"/>
+      <c r="C94" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D94" s="27"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="8" t="s">
         <v>230</v>
       </c>
@@ -3946,15 +3997,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="28" t="s">
+    <row r="95" spans="1:6">
+      <c r="A95" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="C95" s="27" t="s">
+      <c r="B95" s="30"/>
+      <c r="C95" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="27"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="9" t="s">
         <v>189</v>
       </c>
@@ -3962,65 +4013,65 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="28" t="s">
+    <row r="96" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A96" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="27" t="s">
+      <c r="B96" s="30"/>
+      <c r="C96" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="27"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="9"/>
       <c r="F96" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="27" t="s">
+    <row r="97" spans="1:6">
+      <c r="A97" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D97" s="27"/>
-      <c r="E97" s="28" t="s">
+      <c r="D97" s="29"/>
+      <c r="E97" s="30" t="s">
         <v>234</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="28"/>
+    <row r="98" spans="1:6">
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="30"/>
       <c r="F98" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="28"/>
+    <row r="99" spans="1:6">
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="30"/>
       <c r="F99" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="28" t="s">
+    <row r="100" spans="1:6">
+      <c r="A100" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="30"/>
+      <c r="C100" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="27"/>
+      <c r="D100" s="29"/>
       <c r="E100" s="8" t="s">
         <v>195</v>
       </c>
@@ -4030,58 +4081,70 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B99"/>
-    <mergeCell ref="C97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E65:E80"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D6"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B11"/>
+    <mergeCell ref="C8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:D21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="A31:B49"/>
+    <mergeCell ref="D31:D49"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E31:E49"/>
+    <mergeCell ref="F31:F49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E65:E80"/>
+    <mergeCell ref="C74:D74"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A65:B80"/>
     <mergeCell ref="C65:D65"/>
@@ -4092,71 +4155,59 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="A31:B49"/>
-    <mergeCell ref="D31:D49"/>
-    <mergeCell ref="E31:E49"/>
-    <mergeCell ref="F31:F49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="C19:D21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D6"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B11"/>
-    <mergeCell ref="C8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B99"/>
+    <mergeCell ref="C97:D99"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -4169,13 +4220,13 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",$A$2),LEN(CELL("filename",$A$2))-FIND("]",CELL("filename",$A$2)))</f>
         <v>101人物表VipLine</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
         <v>274</v>
       </c>
@@ -4189,7 +4240,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>251</v>
       </c>
@@ -4202,7 +4253,7 @@
         <v>101-3-002炎帝</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>250</v>
       </c>
@@ -4211,7 +4262,7 @@
         <v>101-4-001桀王</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -4224,7 +4275,7 @@
         <v>101-5-002褒姒</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4237,27 +4288,27 @@
         <v>101-6-002姜尚</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="21" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -4276,10 +4327,10 @@
         <v>101-9-003芈月</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -4304,10 +4355,10 @@
         <v>101-10-005田忌</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4316,10 +4367,10 @@
         <v>101-11-001屈原</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
@@ -4328,10 +4379,10 @@
         <v>101-12-001申不害</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="21"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -4340,10 +4391,10 @@
         <v>101-13-001赵奢</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="21"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
@@ -4360,10 +4411,10 @@
         <v>101-14-003</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4372,7 +4423,7 @@
         <v>101-15-001荆轲</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -4393,28 +4444,28 @@
         <v>101-16-004</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4433,8 +4484,8 @@
         <v>101-21-003司马懿</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="27"/>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -4455,8 +4506,8 @@
         <v>101-22-004张飞</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="28"/>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
@@ -4481,12 +4532,12 @@
         <v>101-23-005小乔</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -4495,40 +4546,40 @@
         <v>101-25-001王羲之</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="27"/>
       <c r="B28" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:9">
+      <c r="A29" s="27"/>
       <c r="B29" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:9">
+      <c r="A30" s="27"/>
       <c r="B30" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="27"/>
       <c r="B31" s="1" t="s">
         <v>218</v>
       </c>
@@ -4537,32 +4588,32 @@
         <v>101-31-001孝文帝</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:9">
+      <c r="A32" s="27"/>
       <c r="B32" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="24"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="27"/>
       <c r="B33" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="27"/>
       <c r="B34" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="28"/>
       <c r="B35" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>242</v>
       </c>
@@ -4575,7 +4626,7 @@
         <v>101-36-002隋炀帝</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>265</v>
       </c>
@@ -4592,7 +4643,7 @@
         <v>101-37-003魏征</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>266</v>
       </c>
@@ -4605,7 +4656,7 @@
         <v>101-38-001李治</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>267</v>
       </c>
@@ -4614,58 +4665,58 @@
         <v>101-39-001白居易</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="22"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="25"/>
       <c r="B41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="22"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="25"/>
       <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="22"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="25"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="22"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="25"/>
       <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="22"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="25"/>
       <c r="B45" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="22"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="25"/>
       <c r="B46" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="22"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="25"/>
       <c r="B47" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="22"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="25"/>
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
@@ -4674,43 +4725,43 @@
         <v>101-48-001李煜</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="22"/>
+    <row r="49" spans="1:10">
+      <c r="A49" s="25"/>
       <c r="B49" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="22"/>
+    <row r="50" spans="1:10">
+      <c r="A50" s="25"/>
       <c r="B50" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="22"/>
+    <row r="51" spans="1:10">
+      <c r="A51" s="25"/>
       <c r="B51" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="22"/>
+    <row r="52" spans="1:10">
+      <c r="A52" s="25"/>
       <c r="B52" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="22"/>
+    <row r="53" spans="1:10">
+      <c r="A53" s="25"/>
       <c r="B53" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="22"/>
+    <row r="54" spans="1:10">
+      <c r="A54" s="25"/>
       <c r="B54" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10">
       <c r="A55" s="3" t="s">
         <v>32</v>
       </c>
@@ -4739,7 +4790,7 @@
         <v>101-55-006张择端</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10">
       <c r="A56" s="3" t="s">
         <v>35</v>
       </c>
@@ -4764,17 +4815,17 @@
         <v>101-56-005秦桧</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
         <v>270</v>
       </c>
@@ -4783,7 +4834,7 @@
         <v>101-59-001完颜阿骨打</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
         <v>174</v>
       </c>
@@ -4792,7 +4843,7 @@
         <v>101-60-001成吉思汗</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>37</v>
       </c>
@@ -4801,7 +4852,7 @@
         <v>101-61-001忽必烈</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -4814,7 +4865,7 @@
         <v>101-62-002朱棣</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -4831,7 +4882,7 @@
         <v>101-63-003乾隆</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>272</v>
       </c>
@@ -4844,7 +4895,7 @@
         <v>101-64-002袁世凯</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>273</v>
       </c>
@@ -4859,8 +4910,443 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A27:A35"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E65"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="str">
+        <f ca="1">RIGHT(CELL("filename",$A$2),LEN(CELL("filename",$A$2))-FIND("]",CELL("filename",$A$2)))</f>
+        <v>102重大事件表EventLine</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f ca="1">LEFT($A$1,3) &amp;"-"&amp;ROW()&amp;"-"&amp;"001商鞅变法"</f>
+        <v>102-9-001商鞅变法</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="42"/>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="43"/>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="42"/>
+      <c r="B28" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="42"/>
+      <c r="B29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="42"/>
+      <c r="B30" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="42"/>
+      <c r="B31" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="42"/>
+      <c r="B32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="42"/>
+      <c r="B34" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="40"/>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="40"/>
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="40"/>
+      <c r="B43" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="40"/>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="40"/>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="40"/>
+      <c r="B54" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D2"/>
+  <mergeCells count="6">
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A27:A35"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>